--- a/src/enspect/data_slicing.xlsx
+++ b/src/enspect/data_slicing.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_WORK\AEA\Projekte\bilanzen_monitor\enspect\src\enspect\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_WORK\AEA\Projekte\bilanzen_monitor\enspect\src\enspect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFCBAF5-39D2-4A8D-BC75-0651FF1F2A85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8055B8-A952-4EAE-A20E-1A086E4BA080}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Energiebilanzen" sheetId="1" r:id="rId1"/>
-    <sheet name="Treibhausgase" sheetId="3" r:id="rId2"/>
-    <sheet name="Erneuerbare" sheetId="4" r:id="rId3"/>
-    <sheet name="Nutzenergie" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="Treibhausgase" sheetId="3" r:id="rId3"/>
+    <sheet name="Erneuerbare" sheetId="4" r:id="rId4"/>
+    <sheet name="Nutzenergie" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -3075,6 +3076,120 @@
     <xf numFmtId="0" fontId="20" fillId="23" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3084,15 +3199,6 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3120,51 +3226,6 @@
     <xf numFmtId="0" fontId="11" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3187,66 +3248,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3685,8 +3686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6:R10"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3711,51 +3712,51 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="102" t="s">
         <v>453</v>
       </c>
-      <c r="C2" s="154" t="s">
+      <c r="C2" s="104" t="s">
         <v>454</v>
       </c>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="156"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
     </row>
     <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="153"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="159"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="109"/>
     </row>
     <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="126">
+      <c r="A4" s="113">
         <v>1</v>
       </c>
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="116" t="s">
         <v>350</v>
       </c>
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="119" t="s">
         <v>354</v>
       </c>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="119"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="121"/>
       <c r="R4" s="33" t="s">
         <v>305</v>
       </c>
@@ -3767,22 +3768,22 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="127"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="122"/>
-      <c r="R5" s="140" t="s">
+      <c r="A5" s="114"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="124"/>
+      <c r="R5" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="141"/>
-      <c r="T5" s="142"/>
+      <c r="S5" s="111"/>
+      <c r="T5" s="112"/>
       <c r="U5" s="20" t="s">
         <v>246</v>
       </c>
@@ -3794,17 +3795,17 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="128"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="125"/>
+      <c r="A6" s="115"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="127"/>
       <c r="R6" s="32" t="s">
         <v>26</v>
       </c>
@@ -3872,17 +3873,17 @@
       <c r="B8" s="51">
         <v>2000</v>
       </c>
-      <c r="C8" s="143" t="s">
+      <c r="C8" s="128" t="s">
         <v>353</v>
       </c>
-      <c r="D8" s="144"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="145"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="130"/>
       <c r="R8" s="8" t="s">
         <v>28</v>
       </c>
@@ -3903,15 +3904,15 @@
       <c r="B9" s="52">
         <v>2001</v>
       </c>
-      <c r="C9" s="146"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="147"/>
-      <c r="K9" s="148"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="133"/>
       <c r="R9" s="8" t="s">
         <v>29</v>
       </c>
@@ -3932,15 +3933,15 @@
       <c r="B10" s="52">
         <v>2002</v>
       </c>
-      <c r="C10" s="146"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="147"/>
-      <c r="K10" s="148"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="133"/>
       <c r="R10" s="8" t="s">
         <v>30</v>
       </c>
@@ -3961,15 +3962,15 @@
       <c r="B11" s="53" t="s">
         <v>351</v>
       </c>
-      <c r="C11" s="149"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="150"/>
-      <c r="K11" s="151"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="136"/>
       <c r="R11" s="8" t="s">
         <v>31</v>
       </c>
@@ -4029,20 +4030,20 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="B15" s="152" t="s">
+      <c r="B15" s="102" t="s">
         <v>453</v>
       </c>
-      <c r="C15" s="154" t="s">
+      <c r="C15" s="104" t="s">
         <v>455</v>
       </c>
-      <c r="D15" s="155"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155"/>
-      <c r="I15" s="155"/>
-      <c r="J15" s="155"/>
-      <c r="K15" s="156"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="106"/>
       <c r="R15" s="10" t="s">
         <v>35</v>
       </c>
@@ -4057,16 +4058,16 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="153"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="159"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="109"/>
       <c r="R16" s="10" t="s">
         <v>36</v>
       </c>
@@ -4081,23 +4082,23 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="126">
+      <c r="A17" s="113">
         <v>2</v>
       </c>
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="117" t="s">
+      <c r="C17" s="119" t="s">
         <v>355</v>
       </c>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="118"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="119"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="121"/>
       <c r="R17" s="11" t="s">
         <v>37</v>
       </c>
@@ -4112,17 +4113,17 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="127"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="121"/>
-      <c r="K18" s="122"/>
+      <c r="A18" s="114"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="124"/>
       <c r="R18" s="11" t="s">
         <v>38</v>
       </c>
@@ -4137,17 +4138,17 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="128"/>
-      <c r="B19" s="131"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="124"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="124"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="125"/>
+      <c r="A19" s="115"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="126"/>
+      <c r="K19" s="127"/>
       <c r="R19" s="10" t="s">
         <v>39</v>
       </c>
@@ -4209,17 +4210,17 @@
       <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="117" t="s">
+      <c r="C21" s="119" t="s">
         <v>356</v>
       </c>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="133"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="152"/>
+      <c r="K21" s="153"/>
       <c r="R21" s="11" t="s">
         <v>41</v>
       </c>
@@ -4237,15 +4238,15 @@
       <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="134"/>
-      <c r="D22" s="135"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="136"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="156"/>
       <c r="R22" s="10" t="s">
         <v>42</v>
       </c>
@@ -4263,15 +4264,15 @@
       <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="134"/>
-      <c r="D23" s="135"/>
-      <c r="E23" s="135"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="135"/>
-      <c r="H23" s="135"/>
-      <c r="I23" s="135"/>
-      <c r="J23" s="135"/>
-      <c r="K23" s="136"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="155"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="155"/>
+      <c r="K23" s="156"/>
       <c r="R23" s="11" t="s">
         <v>43</v>
       </c>
@@ -4289,15 +4290,15 @@
       <c r="B24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="134"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="135"/>
-      <c r="H24" s="135"/>
-      <c r="I24" s="135"/>
-      <c r="J24" s="135"/>
-      <c r="K24" s="136"/>
+      <c r="C24" s="154"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="155"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="155"/>
+      <c r="K24" s="156"/>
       <c r="R24" s="11" t="s">
         <v>44</v>
       </c>
@@ -4315,15 +4316,15 @@
       <c r="B25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="134"/>
-      <c r="D25" s="135"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="135"/>
-      <c r="K25" s="136"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="155"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="155"/>
+      <c r="I25" s="155"/>
+      <c r="J25" s="155"/>
+      <c r="K25" s="156"/>
       <c r="R25" s="10" t="s">
         <v>45</v>
       </c>
@@ -4341,15 +4342,15 @@
       <c r="B26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="134"/>
-      <c r="D26" s="135"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="135"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="136"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="156"/>
       <c r="R26" s="8" t="s">
         <v>46</v>
       </c>
@@ -4367,15 +4368,15 @@
       <c r="B27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="134"/>
-      <c r="D27" s="135"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="135"/>
-      <c r="K27" s="136"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="155"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="156"/>
       <c r="R27" s="9" t="s">
         <v>47</v>
       </c>
@@ -4393,15 +4394,15 @@
       <c r="B28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="134"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="135"/>
-      <c r="I28" s="135"/>
-      <c r="J28" s="135"/>
-      <c r="K28" s="136"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="156"/>
       <c r="R28" s="10" t="s">
         <v>48</v>
       </c>
@@ -4419,15 +4420,15 @@
       <c r="B29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="137"/>
-      <c r="D29" s="138"/>
-      <c r="E29" s="138"/>
-      <c r="F29" s="138"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="138"/>
-      <c r="I29" s="138"/>
-      <c r="J29" s="138"/>
-      <c r="K29" s="139"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="158"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="158"/>
+      <c r="I29" s="158"/>
+      <c r="J29" s="158"/>
+      <c r="K29" s="159"/>
       <c r="R29" s="10" t="s">
         <v>49</v>
       </c>
@@ -4453,20 +4454,20 @@
       </c>
     </row>
     <row r="31" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B31" s="152" t="s">
+      <c r="B31" s="102" t="s">
         <v>453</v>
       </c>
-      <c r="C31" s="154" t="s">
+      <c r="C31" s="104" t="s">
         <v>456</v>
       </c>
-      <c r="D31" s="155"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="155"/>
-      <c r="I31" s="155"/>
-      <c r="J31" s="155"/>
-      <c r="K31" s="156"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="106"/>
       <c r="R31" s="10" t="s">
         <v>51</v>
       </c>
@@ -4478,16 +4479,16 @@
       </c>
     </row>
     <row r="32" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="153"/>
-      <c r="C32" s="157"/>
-      <c r="D32" s="158"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="158"/>
-      <c r="J32" s="158"/>
-      <c r="K32" s="159"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="109"/>
       <c r="R32" s="11" t="s">
         <v>52</v>
       </c>
@@ -4499,23 +4500,23 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="126">
+      <c r="A33" s="113">
         <v>3.1</v>
       </c>
-      <c r="B33" s="129" t="s">
+      <c r="B33" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="117" t="s">
+      <c r="C33" s="119" t="s">
         <v>358</v>
       </c>
-      <c r="D33" s="118"/>
-      <c r="E33" s="118"/>
-      <c r="F33" s="118"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="118"/>
-      <c r="J33" s="118"/>
-      <c r="K33" s="119"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="120"/>
+      <c r="H33" s="120"/>
+      <c r="I33" s="120"/>
+      <c r="J33" s="120"/>
+      <c r="K33" s="121"/>
       <c r="R33" s="12" t="s">
         <v>53</v>
       </c>
@@ -4527,17 +4528,17 @@
       </c>
     </row>
     <row r="34" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="127"/>
-      <c r="B34" s="130"/>
-      <c r="C34" s="120"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="121"/>
-      <c r="J34" s="121"/>
-      <c r="K34" s="122"/>
+      <c r="A34" s="114"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="123"/>
+      <c r="K34" s="124"/>
       <c r="R34" s="12" t="s">
         <v>54</v>
       </c>
@@ -4549,17 +4550,17 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="128"/>
-      <c r="B35" s="131"/>
-      <c r="C35" s="123"/>
-      <c r="D35" s="124"/>
-      <c r="E35" s="124"/>
-      <c r="F35" s="124"/>
-      <c r="G35" s="124"/>
-      <c r="H35" s="124"/>
-      <c r="I35" s="124"/>
-      <c r="J35" s="124"/>
-      <c r="K35" s="125"/>
+      <c r="A35" s="115"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="126"/>
+      <c r="H35" s="126"/>
+      <c r="I35" s="126"/>
+      <c r="J35" s="126"/>
+      <c r="K35" s="127"/>
       <c r="R35" s="12" t="s">
         <v>55</v>
       </c>
@@ -4615,17 +4616,17 @@
       <c r="B37" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="117" t="s">
+      <c r="C37" s="119" t="s">
         <v>357</v>
       </c>
-      <c r="D37" s="118"/>
-      <c r="E37" s="118"/>
-      <c r="F37" s="118"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="118"/>
-      <c r="I37" s="118"/>
-      <c r="J37" s="118"/>
-      <c r="K37" s="119"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="120"/>
+      <c r="I37" s="120"/>
+      <c r="J37" s="120"/>
+      <c r="K37" s="121"/>
       <c r="R37" s="12" t="s">
         <v>57</v>
       </c>
@@ -4640,15 +4641,15 @@
       <c r="B38" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="120"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="121"/>
-      <c r="F38" s="121"/>
-      <c r="G38" s="121"/>
-      <c r="H38" s="121"/>
-      <c r="I38" s="121"/>
-      <c r="J38" s="121"/>
-      <c r="K38" s="122"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="123"/>
+      <c r="H38" s="123"/>
+      <c r="I38" s="123"/>
+      <c r="J38" s="123"/>
+      <c r="K38" s="124"/>
       <c r="R38" s="13" t="s">
         <v>58</v>
       </c>
@@ -4663,15 +4664,15 @@
       <c r="B39" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="120"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="121"/>
-      <c r="F39" s="121"/>
-      <c r="G39" s="121"/>
-      <c r="H39" s="121"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="121"/>
-      <c r="K39" s="122"/>
+      <c r="C39" s="122"/>
+      <c r="D39" s="123"/>
+      <c r="E39" s="123"/>
+      <c r="F39" s="123"/>
+      <c r="G39" s="123"/>
+      <c r="H39" s="123"/>
+      <c r="I39" s="123"/>
+      <c r="J39" s="123"/>
+      <c r="K39" s="124"/>
       <c r="R39" s="13" t="s">
         <v>59</v>
       </c>
@@ -4686,15 +4687,15 @@
       <c r="B40" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="120"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="121"/>
-      <c r="F40" s="121"/>
-      <c r="G40" s="121"/>
-      <c r="H40" s="121"/>
-      <c r="I40" s="121"/>
-      <c r="J40" s="121"/>
-      <c r="K40" s="122"/>
+      <c r="C40" s="122"/>
+      <c r="D40" s="123"/>
+      <c r="E40" s="123"/>
+      <c r="F40" s="123"/>
+      <c r="G40" s="123"/>
+      <c r="H40" s="123"/>
+      <c r="I40" s="123"/>
+      <c r="J40" s="123"/>
+      <c r="K40" s="124"/>
       <c r="R40" s="12" t="s">
         <v>60</v>
       </c>
@@ -4709,15 +4710,15 @@
       <c r="B41" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="120"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="121"/>
-      <c r="F41" s="121"/>
-      <c r="G41" s="121"/>
-      <c r="H41" s="121"/>
-      <c r="I41" s="121"/>
-      <c r="J41" s="121"/>
-      <c r="K41" s="122"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="123"/>
+      <c r="E41" s="123"/>
+      <c r="F41" s="123"/>
+      <c r="G41" s="123"/>
+      <c r="H41" s="123"/>
+      <c r="I41" s="123"/>
+      <c r="J41" s="123"/>
+      <c r="K41" s="124"/>
       <c r="R41" s="13" t="s">
         <v>61</v>
       </c>
@@ -4732,15 +4733,15 @@
       <c r="B42" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="123"/>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="124"/>
-      <c r="H42" s="124"/>
-      <c r="I42" s="124"/>
-      <c r="J42" s="124"/>
-      <c r="K42" s="125"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="126"/>
+      <c r="G42" s="126"/>
+      <c r="H42" s="126"/>
+      <c r="I42" s="126"/>
+      <c r="J42" s="126"/>
+      <c r="K42" s="127"/>
       <c r="R42" s="13" t="s">
         <v>62</v>
       </c>
@@ -4763,23 +4764,23 @@
       </c>
     </row>
     <row r="44" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A44" s="105">
+      <c r="A44" s="137">
         <v>3.2</v>
       </c>
-      <c r="B44" s="102" t="s">
+      <c r="B44" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="108" t="s">
+      <c r="C44" s="143" t="s">
         <v>359</v>
       </c>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
-      <c r="G44" s="109"/>
-      <c r="H44" s="109"/>
-      <c r="I44" s="109"/>
-      <c r="J44" s="109"/>
-      <c r="K44" s="110"/>
+      <c r="D44" s="144"/>
+      <c r="E44" s="144"/>
+      <c r="F44" s="144"/>
+      <c r="G44" s="144"/>
+      <c r="H44" s="144"/>
+      <c r="I44" s="144"/>
+      <c r="J44" s="144"/>
+      <c r="K44" s="145"/>
       <c r="R44" s="13" t="s">
         <v>64</v>
       </c>
@@ -4791,17 +4792,17 @@
       </c>
     </row>
     <row r="45" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A45" s="106"/>
-      <c r="B45" s="103"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="112"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="112"/>
-      <c r="H45" s="112"/>
-      <c r="I45" s="112"/>
-      <c r="J45" s="112"/>
-      <c r="K45" s="113"/>
+      <c r="A45" s="138"/>
+      <c r="B45" s="141"/>
+      <c r="C45" s="146"/>
+      <c r="D45" s="147"/>
+      <c r="E45" s="147"/>
+      <c r="F45" s="147"/>
+      <c r="G45" s="147"/>
+      <c r="H45" s="147"/>
+      <c r="I45" s="147"/>
+      <c r="J45" s="147"/>
+      <c r="K45" s="148"/>
       <c r="R45" s="13" t="s">
         <v>65</v>
       </c>
@@ -4813,17 +4814,17 @@
       </c>
     </row>
     <row r="46" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="107"/>
-      <c r="B46" s="104"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="115"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="115"/>
-      <c r="H46" s="115"/>
-      <c r="I46" s="115"/>
-      <c r="J46" s="115"/>
-      <c r="K46" s="116"/>
+      <c r="A46" s="139"/>
+      <c r="B46" s="142"/>
+      <c r="C46" s="149"/>
+      <c r="D46" s="150"/>
+      <c r="E46" s="150"/>
+      <c r="F46" s="150"/>
+      <c r="G46" s="150"/>
+      <c r="H46" s="150"/>
+      <c r="I46" s="150"/>
+      <c r="J46" s="150"/>
+      <c r="K46" s="151"/>
       <c r="R46" s="13" t="s">
         <v>66</v>
       </c>
@@ -4881,17 +4882,17 @@
       <c r="B48" s="97" t="s">
         <v>216</v>
       </c>
-      <c r="C48" s="108" t="s">
+      <c r="C48" s="143" t="s">
         <v>357</v>
       </c>
-      <c r="D48" s="109"/>
-      <c r="E48" s="109"/>
-      <c r="F48" s="109"/>
-      <c r="G48" s="109"/>
-      <c r="H48" s="109"/>
-      <c r="I48" s="109"/>
-      <c r="J48" s="109"/>
-      <c r="K48" s="110"/>
+      <c r="D48" s="144"/>
+      <c r="E48" s="144"/>
+      <c r="F48" s="144"/>
+      <c r="G48" s="144"/>
+      <c r="H48" s="144"/>
+      <c r="I48" s="144"/>
+      <c r="J48" s="144"/>
+      <c r="K48" s="145"/>
       <c r="R48" s="13" t="s">
         <v>68</v>
       </c>
@@ -4907,15 +4908,15 @@
       <c r="B49" s="98" t="s">
         <v>217</v>
       </c>
-      <c r="C49" s="111"/>
-      <c r="D49" s="112"/>
-      <c r="E49" s="112"/>
-      <c r="F49" s="112"/>
-      <c r="G49" s="112"/>
-      <c r="H49" s="112"/>
-      <c r="I49" s="112"/>
-      <c r="J49" s="112"/>
-      <c r="K49" s="113"/>
+      <c r="C49" s="146"/>
+      <c r="D49" s="147"/>
+      <c r="E49" s="147"/>
+      <c r="F49" s="147"/>
+      <c r="G49" s="147"/>
+      <c r="H49" s="147"/>
+      <c r="I49" s="147"/>
+      <c r="J49" s="147"/>
+      <c r="K49" s="148"/>
       <c r="R49" s="13" t="s">
         <v>69</v>
       </c>
@@ -4931,15 +4932,15 @@
       <c r="B50" s="98" t="s">
         <v>218</v>
       </c>
-      <c r="C50" s="111"/>
-      <c r="D50" s="112"/>
-      <c r="E50" s="112"/>
-      <c r="F50" s="112"/>
-      <c r="G50" s="112"/>
-      <c r="H50" s="112"/>
-      <c r="I50" s="112"/>
-      <c r="J50" s="112"/>
-      <c r="K50" s="113"/>
+      <c r="C50" s="146"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="147"/>
+      <c r="F50" s="147"/>
+      <c r="G50" s="147"/>
+      <c r="H50" s="147"/>
+      <c r="I50" s="147"/>
+      <c r="J50" s="147"/>
+      <c r="K50" s="148"/>
       <c r="R50" s="13" t="s">
         <v>70</v>
       </c>
@@ -4955,15 +4956,15 @@
       <c r="B51" s="98" t="s">
         <v>219</v>
       </c>
-      <c r="C51" s="111"/>
-      <c r="D51" s="112"/>
-      <c r="E51" s="112"/>
-      <c r="F51" s="112"/>
-      <c r="G51" s="112"/>
-      <c r="H51" s="112"/>
-      <c r="I51" s="112"/>
-      <c r="J51" s="112"/>
-      <c r="K51" s="113"/>
+      <c r="C51" s="146"/>
+      <c r="D51" s="147"/>
+      <c r="E51" s="147"/>
+      <c r="F51" s="147"/>
+      <c r="G51" s="147"/>
+      <c r="H51" s="147"/>
+      <c r="I51" s="147"/>
+      <c r="J51" s="147"/>
+      <c r="K51" s="148"/>
       <c r="R51" s="13" t="s">
         <v>71</v>
       </c>
@@ -4979,15 +4980,15 @@
       <c r="B52" s="98" t="s">
         <v>220</v>
       </c>
-      <c r="C52" s="111"/>
-      <c r="D52" s="112"/>
-      <c r="E52" s="112"/>
-      <c r="F52" s="112"/>
-      <c r="G52" s="112"/>
-      <c r="H52" s="112"/>
-      <c r="I52" s="112"/>
-      <c r="J52" s="112"/>
-      <c r="K52" s="113"/>
+      <c r="C52" s="146"/>
+      <c r="D52" s="147"/>
+      <c r="E52" s="147"/>
+      <c r="F52" s="147"/>
+      <c r="G52" s="147"/>
+      <c r="H52" s="147"/>
+      <c r="I52" s="147"/>
+      <c r="J52" s="147"/>
+      <c r="K52" s="148"/>
       <c r="R52" s="13" t="s">
         <v>72</v>
       </c>
@@ -5003,15 +5004,15 @@
       <c r="B53" s="98" t="s">
         <v>221</v>
       </c>
-      <c r="C53" s="114"/>
-      <c r="D53" s="115"/>
-      <c r="E53" s="115"/>
-      <c r="F53" s="115"/>
-      <c r="G53" s="115"/>
-      <c r="H53" s="115"/>
-      <c r="I53" s="115"/>
-      <c r="J53" s="115"/>
-      <c r="K53" s="116"/>
+      <c r="C53" s="149"/>
+      <c r="D53" s="150"/>
+      <c r="E53" s="150"/>
+      <c r="F53" s="150"/>
+      <c r="G53" s="150"/>
+      <c r="H53" s="150"/>
+      <c r="I53" s="150"/>
+      <c r="J53" s="150"/>
+      <c r="K53" s="151"/>
       <c r="R53" s="13" t="s">
         <v>73</v>
       </c>
@@ -5045,23 +5046,23 @@
       </c>
     </row>
     <row r="55" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A55" s="105">
+      <c r="A55" s="137">
         <v>3.3</v>
       </c>
-      <c r="B55" s="102" t="s">
+      <c r="B55" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="108" t="s">
+      <c r="C55" s="143" t="s">
         <v>360</v>
       </c>
-      <c r="D55" s="109"/>
-      <c r="E55" s="109"/>
-      <c r="F55" s="109"/>
-      <c r="G55" s="109"/>
-      <c r="H55" s="109"/>
-      <c r="I55" s="109"/>
-      <c r="J55" s="109"/>
-      <c r="K55" s="110"/>
+      <c r="D55" s="144"/>
+      <c r="E55" s="144"/>
+      <c r="F55" s="144"/>
+      <c r="G55" s="144"/>
+      <c r="H55" s="144"/>
+      <c r="I55" s="144"/>
+      <c r="J55" s="144"/>
+      <c r="K55" s="145"/>
       <c r="R55" s="13" t="s">
         <v>75</v>
       </c>
@@ -5073,17 +5074,17 @@
       </c>
     </row>
     <row r="56" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A56" s="106"/>
-      <c r="B56" s="103"/>
-      <c r="C56" s="111"/>
-      <c r="D56" s="112"/>
-      <c r="E56" s="112"/>
-      <c r="F56" s="112"/>
-      <c r="G56" s="112"/>
-      <c r="H56" s="112"/>
-      <c r="I56" s="112"/>
-      <c r="J56" s="112"/>
-      <c r="K56" s="113"/>
+      <c r="A56" s="138"/>
+      <c r="B56" s="141"/>
+      <c r="C56" s="146"/>
+      <c r="D56" s="147"/>
+      <c r="E56" s="147"/>
+      <c r="F56" s="147"/>
+      <c r="G56" s="147"/>
+      <c r="H56" s="147"/>
+      <c r="I56" s="147"/>
+      <c r="J56" s="147"/>
+      <c r="K56" s="148"/>
       <c r="R56" s="13" t="s">
         <v>76</v>
       </c>
@@ -5095,17 +5096,17 @@
       </c>
     </row>
     <row r="57" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="107"/>
-      <c r="B57" s="104"/>
-      <c r="C57" s="114"/>
-      <c r="D57" s="115"/>
-      <c r="E57" s="115"/>
-      <c r="F57" s="115"/>
-      <c r="G57" s="115"/>
-      <c r="H57" s="115"/>
-      <c r="I57" s="115"/>
-      <c r="J57" s="115"/>
-      <c r="K57" s="116"/>
+      <c r="A57" s="139"/>
+      <c r="B57" s="142"/>
+      <c r="C57" s="149"/>
+      <c r="D57" s="150"/>
+      <c r="E57" s="150"/>
+      <c r="F57" s="150"/>
+      <c r="G57" s="150"/>
+      <c r="H57" s="150"/>
+      <c r="I57" s="150"/>
+      <c r="J57" s="150"/>
+      <c r="K57" s="151"/>
       <c r="R57" s="13" t="s">
         <v>77</v>
       </c>
@@ -5163,17 +5164,17 @@
       <c r="B59" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="C59" s="108" t="s">
+      <c r="C59" s="143" t="s">
         <v>357</v>
       </c>
-      <c r="D59" s="109"/>
-      <c r="E59" s="109"/>
-      <c r="F59" s="109"/>
-      <c r="G59" s="109"/>
-      <c r="H59" s="109"/>
-      <c r="I59" s="109"/>
-      <c r="J59" s="109"/>
-      <c r="K59" s="110"/>
+      <c r="D59" s="144"/>
+      <c r="E59" s="144"/>
+      <c r="F59" s="144"/>
+      <c r="G59" s="144"/>
+      <c r="H59" s="144"/>
+      <c r="I59" s="144"/>
+      <c r="J59" s="144"/>
+      <c r="K59" s="145"/>
       <c r="R59" s="13" t="s">
         <v>79</v>
       </c>
@@ -5189,15 +5190,15 @@
       <c r="B60" s="100" t="s">
         <v>241</v>
       </c>
-      <c r="C60" s="111"/>
-      <c r="D60" s="112"/>
-      <c r="E60" s="112"/>
-      <c r="F60" s="112"/>
-      <c r="G60" s="112"/>
-      <c r="H60" s="112"/>
-      <c r="I60" s="112"/>
-      <c r="J60" s="112"/>
-      <c r="K60" s="113"/>
+      <c r="C60" s="146"/>
+      <c r="D60" s="147"/>
+      <c r="E60" s="147"/>
+      <c r="F60" s="147"/>
+      <c r="G60" s="147"/>
+      <c r="H60" s="147"/>
+      <c r="I60" s="147"/>
+      <c r="J60" s="147"/>
+      <c r="K60" s="148"/>
       <c r="R60" s="13" t="s">
         <v>80</v>
       </c>
@@ -5213,15 +5214,15 @@
       <c r="B61" s="100" t="s">
         <v>242</v>
       </c>
-      <c r="C61" s="111"/>
-      <c r="D61" s="112"/>
-      <c r="E61" s="112"/>
-      <c r="F61" s="112"/>
-      <c r="G61" s="112"/>
-      <c r="H61" s="112"/>
-      <c r="I61" s="112"/>
-      <c r="J61" s="112"/>
-      <c r="K61" s="113"/>
+      <c r="C61" s="146"/>
+      <c r="D61" s="147"/>
+      <c r="E61" s="147"/>
+      <c r="F61" s="147"/>
+      <c r="G61" s="147"/>
+      <c r="H61" s="147"/>
+      <c r="I61" s="147"/>
+      <c r="J61" s="147"/>
+      <c r="K61" s="148"/>
       <c r="R61" s="13" t="s">
         <v>81</v>
       </c>
@@ -5237,15 +5238,15 @@
       <c r="B62" s="100" t="s">
         <v>243</v>
       </c>
-      <c r="C62" s="111"/>
-      <c r="D62" s="112"/>
-      <c r="E62" s="112"/>
-      <c r="F62" s="112"/>
-      <c r="G62" s="112"/>
-      <c r="H62" s="112"/>
-      <c r="I62" s="112"/>
-      <c r="J62" s="112"/>
-      <c r="K62" s="113"/>
+      <c r="C62" s="146"/>
+      <c r="D62" s="147"/>
+      <c r="E62" s="147"/>
+      <c r="F62" s="147"/>
+      <c r="G62" s="147"/>
+      <c r="H62" s="147"/>
+      <c r="I62" s="147"/>
+      <c r="J62" s="147"/>
+      <c r="K62" s="148"/>
       <c r="R62" s="11" t="s">
         <v>82</v>
       </c>
@@ -5261,15 +5262,15 @@
       <c r="B63" s="100" t="s">
         <v>244</v>
       </c>
-      <c r="C63" s="111"/>
-      <c r="D63" s="112"/>
-      <c r="E63" s="112"/>
-      <c r="F63" s="112"/>
-      <c r="G63" s="112"/>
-      <c r="H63" s="112"/>
-      <c r="I63" s="112"/>
-      <c r="J63" s="112"/>
-      <c r="K63" s="113"/>
+      <c r="C63" s="146"/>
+      <c r="D63" s="147"/>
+      <c r="E63" s="147"/>
+      <c r="F63" s="147"/>
+      <c r="G63" s="147"/>
+      <c r="H63" s="147"/>
+      <c r="I63" s="147"/>
+      <c r="J63" s="147"/>
+      <c r="K63" s="148"/>
       <c r="R63" s="12" t="s">
         <v>83</v>
       </c>
@@ -5285,15 +5286,15 @@
       <c r="B64" s="101" t="s">
         <v>245</v>
       </c>
-      <c r="C64" s="114"/>
-      <c r="D64" s="115"/>
-      <c r="E64" s="115"/>
-      <c r="F64" s="115"/>
-      <c r="G64" s="115"/>
-      <c r="H64" s="115"/>
-      <c r="I64" s="115"/>
-      <c r="J64" s="115"/>
-      <c r="K64" s="116"/>
+      <c r="C64" s="149"/>
+      <c r="D64" s="150"/>
+      <c r="E64" s="150"/>
+      <c r="F64" s="150"/>
+      <c r="G64" s="150"/>
+      <c r="H64" s="150"/>
+      <c r="I64" s="150"/>
+      <c r="J64" s="150"/>
+      <c r="K64" s="151"/>
       <c r="R64" s="12" t="s">
         <v>84</v>
       </c>
@@ -5961,17 +5962,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:K3"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:K16"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:K32"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:K6"/>
-    <mergeCell ref="C8:K11"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="C48:K53"/>
+    <mergeCell ref="C55:K57"/>
+    <mergeCell ref="C59:K64"/>
     <mergeCell ref="C37:K42"/>
     <mergeCell ref="A44:A46"/>
     <mergeCell ref="B44:B46"/>
@@ -5983,11 +5978,17 @@
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="C33:K35"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="C48:K53"/>
-    <mergeCell ref="C55:K57"/>
-    <mergeCell ref="C59:K64"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:K6"/>
+    <mergeCell ref="C8:K11"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:K3"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:K16"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5997,6 +5998,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB6D5E0-54D3-433C-8D08-F0D04621452A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
@@ -6011,55 +6026,55 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="126">
+      <c r="A2" s="113">
         <v>1</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="116" t="s">
         <v>350</v>
       </c>
-      <c r="C2" s="117" t="s">
+      <c r="C2" s="119" t="s">
         <v>451</v>
       </c>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
       <c r="M2" s="88" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="127"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="122"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="124"/>
       <c r="M3" s="89" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="128"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="125"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="127"/>
       <c r="M4" s="90" t="s">
         <v>445</v>
       </c>
@@ -6105,17 +6120,17 @@
       <c r="B6" s="51">
         <v>2000</v>
       </c>
-      <c r="C6" s="143" t="s">
+      <c r="C6" s="128" t="s">
         <v>353</v>
       </c>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="145"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="130"/>
       <c r="M6" s="90" t="s">
         <v>447</v>
       </c>
@@ -6125,15 +6140,15 @@
       <c r="B7" s="52">
         <v>2001</v>
       </c>
-      <c r="C7" s="146"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="147"/>
-      <c r="K7" s="148"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="133"/>
       <c r="M7" s="90" t="s">
         <v>14</v>
       </c>
@@ -6143,15 +6158,15 @@
       <c r="B8" s="52">
         <v>2002</v>
       </c>
-      <c r="C8" s="146"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="148"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="133"/>
       <c r="M8" s="90" t="s">
         <v>448</v>
       </c>
@@ -6161,15 +6176,15 @@
       <c r="B9" s="53" t="s">
         <v>351</v>
       </c>
-      <c r="C9" s="149"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="150"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="151"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="136"/>
       <c r="M9" s="90" t="s">
         <v>449</v>
       </c>
@@ -6191,49 +6206,49 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="126">
+      <c r="A11" s="113">
         <v>2</v>
       </c>
-      <c r="B11" s="129" t="s">
+      <c r="B11" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="117" t="s">
+      <c r="C11" s="119" t="s">
         <v>452</v>
       </c>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="119"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="121"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="127"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="122"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="124"/>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="128"/>
-      <c r="B13" s="131"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="125"/>
+      <c r="A13" s="115"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="127"/>
     </row>
     <row r="14" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="87"/>
@@ -6273,122 +6288,122 @@
       <c r="B15" s="89" t="s">
         <v>444</v>
       </c>
-      <c r="C15" s="117" t="s">
+      <c r="C15" s="119" t="s">
         <v>356</v>
       </c>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="119"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="121"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="87"/>
       <c r="B16" s="90" t="s">
         <v>445</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="124"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="87"/>
       <c r="B17" s="90" t="s">
         <v>446</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="121"/>
-      <c r="K17" s="122"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="124"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="87"/>
       <c r="B18" s="90" t="s">
         <v>447</v>
       </c>
-      <c r="C18" s="120"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="121"/>
-      <c r="K18" s="122"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="124"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="87"/>
       <c r="B19" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="120"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="121"/>
-      <c r="K19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="124"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="87"/>
       <c r="B20" s="90" t="s">
         <v>448</v>
       </c>
-      <c r="C20" s="120"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="122"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="124"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="87"/>
       <c r="B21" s="90" t="s">
         <v>449</v>
       </c>
-      <c r="C21" s="120"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="121"/>
-      <c r="K21" s="122"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="124"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="87"/>
       <c r="B22" s="91" t="s">
         <v>450</v>
       </c>
-      <c r="C22" s="123"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="125"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="127"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="87"/>
@@ -6408,7 +6423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q73"/>
   <sheetViews>
@@ -6437,36 +6452,36 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="126">
+      <c r="A2" s="113">
         <v>1</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="116" t="s">
         <v>350</v>
       </c>
-      <c r="C2" s="117" t="s">
+      <c r="C2" s="119" t="s">
         <v>442</v>
       </c>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="127"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="122"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="124"/>
       <c r="M3" s="74" t="s">
         <v>361</v>
       </c>
@@ -6484,17 +6499,17 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="128"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="125"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="127"/>
       <c r="M4" s="77">
         <v>5</v>
       </c>
@@ -6564,17 +6579,17 @@
       <c r="B6" s="51">
         <v>2000</v>
       </c>
-      <c r="C6" s="143" t="s">
+      <c r="C6" s="128" t="s">
         <v>353</v>
       </c>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="145"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="130"/>
       <c r="M6" s="77">
         <v>7</v>
       </c>
@@ -6596,15 +6611,15 @@
       <c r="B7" s="52">
         <v>2001</v>
       </c>
-      <c r="C7" s="146"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="147"/>
-      <c r="K7" s="148"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="133"/>
       <c r="M7" s="77">
         <v>8</v>
       </c>
@@ -6626,15 +6641,15 @@
       <c r="B8" s="52">
         <v>2002</v>
       </c>
-      <c r="C8" s="146"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="148"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="133"/>
       <c r="M8" s="77">
         <v>9</v>
       </c>
@@ -6656,15 +6671,15 @@
       <c r="B9" s="53" t="s">
         <v>351</v>
       </c>
-      <c r="C9" s="149"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="150"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="151"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="136"/>
       <c r="M9" s="77">
         <v>10</v>
       </c>
@@ -7746,7 +7761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P80"/>
   <sheetViews>
@@ -7796,23 +7811,23 @@
         <v>304</v>
       </c>
       <c r="E2" s="49"/>
-      <c r="F2" s="126">
+      <c r="F2" s="113">
         <v>1</v>
       </c>
-      <c r="G2" s="129" t="s">
+      <c r="G2" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="117" t="s">
+      <c r="H2" s="119" t="s">
         <v>345</v>
       </c>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="118"/>
-      <c r="P2" s="119"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="121"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
@@ -7827,17 +7842,17 @@
       <c r="D3" s="51">
         <v>2000</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="122"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="124"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="39" t="s">
@@ -7852,17 +7867,17 @@
       <c r="D4" s="52">
         <v>2001</v>
       </c>
-      <c r="F4" s="128"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="125"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="126"/>
+      <c r="O4" s="126"/>
+      <c r="P4" s="127"/>
     </row>
     <row r="5" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
@@ -7924,17 +7939,17 @@
       <c r="G6" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="H6" s="117" t="s">
+      <c r="H6" s="119" t="s">
         <v>344</v>
       </c>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="119"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="120"/>
+      <c r="P6" s="121"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
@@ -7949,15 +7964,15 @@
       <c r="G7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="120"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="124"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
@@ -7972,15 +7987,15 @@
       <c r="G8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="120"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="121"/>
-      <c r="P8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="123"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="123"/>
+      <c r="P8" s="124"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
@@ -7995,15 +8010,15 @@
       <c r="G9" s="41" t="s">
         <v>309</v>
       </c>
-      <c r="H9" s="120"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="121"/>
-      <c r="N9" s="121"/>
-      <c r="O9" s="121"/>
-      <c r="P9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="123"/>
+      <c r="P9" s="124"/>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="39" t="s">
@@ -8018,15 +8033,15 @@
       <c r="G10" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="H10" s="120"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="124"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="39" t="s">
@@ -8038,15 +8053,15 @@
       <c r="G11" s="39" t="s">
         <v>311</v>
       </c>
-      <c r="H11" s="123"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="124"/>
-      <c r="N11" s="124"/>
-      <c r="O11" s="124"/>
-      <c r="P11" s="125"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="126"/>
+      <c r="N11" s="126"/>
+      <c r="O11" s="126"/>
+      <c r="P11" s="127"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
@@ -8229,49 +8244,49 @@
     </row>
     <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F33" s="126">
+      <c r="F33" s="113">
         <v>2</v>
       </c>
-      <c r="G33" s="129" t="s">
+      <c r="G33" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="117" t="s">
+      <c r="H33" s="119" t="s">
         <v>346</v>
       </c>
-      <c r="I33" s="118"/>
-      <c r="J33" s="118"/>
-      <c r="K33" s="118"/>
-      <c r="L33" s="118"/>
-      <c r="M33" s="118"/>
-      <c r="N33" s="118"/>
-      <c r="O33" s="118"/>
-      <c r="P33" s="119"/>
+      <c r="I33" s="120"/>
+      <c r="J33" s="120"/>
+      <c r="K33" s="120"/>
+      <c r="L33" s="120"/>
+      <c r="M33" s="120"/>
+      <c r="N33" s="120"/>
+      <c r="O33" s="120"/>
+      <c r="P33" s="121"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F34" s="127"/>
-      <c r="G34" s="130"/>
-      <c r="H34" s="120"/>
-      <c r="I34" s="121"/>
-      <c r="J34" s="121"/>
-      <c r="K34" s="121"/>
-      <c r="L34" s="121"/>
-      <c r="M34" s="121"/>
-      <c r="N34" s="121"/>
-      <c r="O34" s="121"/>
-      <c r="P34" s="122"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="122"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="123"/>
+      <c r="K34" s="123"/>
+      <c r="L34" s="123"/>
+      <c r="M34" s="123"/>
+      <c r="N34" s="123"/>
+      <c r="O34" s="123"/>
+      <c r="P34" s="124"/>
     </row>
     <row r="35" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F35" s="128"/>
-      <c r="G35" s="131"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="124"/>
-      <c r="J35" s="124"/>
-      <c r="K35" s="124"/>
-      <c r="L35" s="124"/>
-      <c r="M35" s="124"/>
-      <c r="N35" s="124"/>
-      <c r="O35" s="124"/>
-      <c r="P35" s="125"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="126"/>
+      <c r="J35" s="126"/>
+      <c r="K35" s="126"/>
+      <c r="L35" s="126"/>
+      <c r="M35" s="126"/>
+      <c r="N35" s="126"/>
+      <c r="O35" s="126"/>
+      <c r="P35" s="127"/>
     </row>
     <row r="36" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G36" s="4" t="s">
@@ -8310,87 +8325,87 @@
       <c r="G37" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="H37" s="117" t="s">
+      <c r="H37" s="119" t="s">
         <v>347</v>
       </c>
-      <c r="I37" s="118"/>
-      <c r="J37" s="118"/>
-      <c r="K37" s="118"/>
-      <c r="L37" s="118"/>
-      <c r="M37" s="118"/>
-      <c r="N37" s="118"/>
-      <c r="O37" s="118"/>
-      <c r="P37" s="119"/>
+      <c r="I37" s="120"/>
+      <c r="J37" s="120"/>
+      <c r="K37" s="120"/>
+      <c r="L37" s="120"/>
+      <c r="M37" s="120"/>
+      <c r="N37" s="120"/>
+      <c r="O37" s="120"/>
+      <c r="P37" s="121"/>
     </row>
     <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G38" s="39" t="s">
         <v>330</v>
       </c>
-      <c r="H38" s="120"/>
-      <c r="I38" s="121"/>
-      <c r="J38" s="121"/>
-      <c r="K38" s="121"/>
-      <c r="L38" s="121"/>
-      <c r="M38" s="121"/>
-      <c r="N38" s="121"/>
-      <c r="O38" s="121"/>
-      <c r="P38" s="122"/>
+      <c r="H38" s="122"/>
+      <c r="I38" s="123"/>
+      <c r="J38" s="123"/>
+      <c r="K38" s="123"/>
+      <c r="L38" s="123"/>
+      <c r="M38" s="123"/>
+      <c r="N38" s="123"/>
+      <c r="O38" s="123"/>
+      <c r="P38" s="124"/>
     </row>
     <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G39" s="40" t="s">
         <v>331</v>
       </c>
-      <c r="H39" s="120"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="121"/>
-      <c r="K39" s="121"/>
-      <c r="L39" s="121"/>
-      <c r="M39" s="121"/>
-      <c r="N39" s="121"/>
-      <c r="O39" s="121"/>
-      <c r="P39" s="122"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="123"/>
+      <c r="J39" s="123"/>
+      <c r="K39" s="123"/>
+      <c r="L39" s="123"/>
+      <c r="M39" s="123"/>
+      <c r="N39" s="123"/>
+      <c r="O39" s="123"/>
+      <c r="P39" s="124"/>
     </row>
     <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G40" s="41" t="s">
         <v>332</v>
       </c>
-      <c r="H40" s="120"/>
-      <c r="I40" s="121"/>
-      <c r="J40" s="121"/>
-      <c r="K40" s="121"/>
-      <c r="L40" s="121"/>
-      <c r="M40" s="121"/>
-      <c r="N40" s="121"/>
-      <c r="O40" s="121"/>
-      <c r="P40" s="122"/>
+      <c r="H40" s="122"/>
+      <c r="I40" s="123"/>
+      <c r="J40" s="123"/>
+      <c r="K40" s="123"/>
+      <c r="L40" s="123"/>
+      <c r="M40" s="123"/>
+      <c r="N40" s="123"/>
+      <c r="O40" s="123"/>
+      <c r="P40" s="124"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G41" s="39" t="s">
         <v>333</v>
       </c>
-      <c r="H41" s="120"/>
-      <c r="I41" s="121"/>
-      <c r="J41" s="121"/>
-      <c r="K41" s="121"/>
-      <c r="L41" s="121"/>
-      <c r="M41" s="121"/>
-      <c r="N41" s="121"/>
-      <c r="O41" s="121"/>
-      <c r="P41" s="122"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="123"/>
+      <c r="J41" s="123"/>
+      <c r="K41" s="123"/>
+      <c r="L41" s="123"/>
+      <c r="M41" s="123"/>
+      <c r="N41" s="123"/>
+      <c r="O41" s="123"/>
+      <c r="P41" s="124"/>
     </row>
     <row r="42" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G42" s="39" t="s">
         <v>334</v>
       </c>
-      <c r="H42" s="123"/>
-      <c r="I42" s="124"/>
-      <c r="J42" s="124"/>
-      <c r="K42" s="124"/>
-      <c r="L42" s="124"/>
-      <c r="M42" s="124"/>
-      <c r="N42" s="124"/>
-      <c r="O42" s="124"/>
-      <c r="P42" s="125"/>
+      <c r="H42" s="125"/>
+      <c r="I42" s="126"/>
+      <c r="J42" s="126"/>
+      <c r="K42" s="126"/>
+      <c r="L42" s="126"/>
+      <c r="M42" s="126"/>
+      <c r="N42" s="126"/>
+      <c r="O42" s="126"/>
+      <c r="P42" s="127"/>
     </row>
     <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G43" s="39" t="s">
@@ -8405,49 +8420,49 @@
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F47" s="126">
+      <c r="F47" s="113">
         <v>3</v>
       </c>
-      <c r="G47" s="129" t="s">
+      <c r="G47" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="H47" s="117" t="s">
+      <c r="H47" s="119" t="s">
         <v>348</v>
       </c>
-      <c r="I47" s="118"/>
-      <c r="J47" s="118"/>
-      <c r="K47" s="118"/>
-      <c r="L47" s="118"/>
-      <c r="M47" s="118"/>
-      <c r="N47" s="118"/>
-      <c r="O47" s="118"/>
-      <c r="P47" s="119"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="120"/>
+      <c r="K47" s="120"/>
+      <c r="L47" s="120"/>
+      <c r="M47" s="120"/>
+      <c r="N47" s="120"/>
+      <c r="O47" s="120"/>
+      <c r="P47" s="121"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F48" s="127"/>
-      <c r="G48" s="130"/>
-      <c r="H48" s="120"/>
-      <c r="I48" s="121"/>
-      <c r="J48" s="121"/>
-      <c r="K48" s="121"/>
-      <c r="L48" s="121"/>
-      <c r="M48" s="121"/>
-      <c r="N48" s="121"/>
-      <c r="O48" s="121"/>
-      <c r="P48" s="122"/>
+      <c r="F48" s="114"/>
+      <c r="G48" s="117"/>
+      <c r="H48" s="122"/>
+      <c r="I48" s="123"/>
+      <c r="J48" s="123"/>
+      <c r="K48" s="123"/>
+      <c r="L48" s="123"/>
+      <c r="M48" s="123"/>
+      <c r="N48" s="123"/>
+      <c r="O48" s="123"/>
+      <c r="P48" s="124"/>
     </row>
     <row r="49" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F49" s="128"/>
-      <c r="G49" s="131"/>
-      <c r="H49" s="123"/>
-      <c r="I49" s="124"/>
-      <c r="J49" s="124"/>
-      <c r="K49" s="124"/>
-      <c r="L49" s="124"/>
-      <c r="M49" s="124"/>
-      <c r="N49" s="124"/>
-      <c r="O49" s="124"/>
-      <c r="P49" s="125"/>
+      <c r="F49" s="115"/>
+      <c r="G49" s="118"/>
+      <c r="H49" s="125"/>
+      <c r="I49" s="126"/>
+      <c r="J49" s="126"/>
+      <c r="K49" s="126"/>
+      <c r="L49" s="126"/>
+      <c r="M49" s="126"/>
+      <c r="N49" s="126"/>
+      <c r="O49" s="126"/>
+      <c r="P49" s="127"/>
     </row>
     <row r="50" spans="5:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G50" s="4" t="s">
@@ -8488,17 +8503,17 @@
       <c r="G51" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="H51" s="117" t="s">
+      <c r="H51" s="119" t="s">
         <v>349</v>
       </c>
-      <c r="I51" s="118"/>
-      <c r="J51" s="118"/>
-      <c r="K51" s="118"/>
-      <c r="L51" s="118"/>
-      <c r="M51" s="118"/>
-      <c r="N51" s="118"/>
-      <c r="O51" s="118"/>
-      <c r="P51" s="119"/>
+      <c r="I51" s="120"/>
+      <c r="J51" s="120"/>
+      <c r="K51" s="120"/>
+      <c r="L51" s="120"/>
+      <c r="M51" s="120"/>
+      <c r="N51" s="120"/>
+      <c r="O51" s="120"/>
+      <c r="P51" s="121"/>
     </row>
     <row r="52" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E52" s="2" t="s">
@@ -8507,15 +8522,15 @@
       <c r="G52" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="H52" s="120"/>
-      <c r="I52" s="121"/>
-      <c r="J52" s="121"/>
-      <c r="K52" s="121"/>
-      <c r="L52" s="121"/>
-      <c r="M52" s="121"/>
-      <c r="N52" s="121"/>
-      <c r="O52" s="121"/>
-      <c r="P52" s="122"/>
+      <c r="H52" s="122"/>
+      <c r="I52" s="123"/>
+      <c r="J52" s="123"/>
+      <c r="K52" s="123"/>
+      <c r="L52" s="123"/>
+      <c r="M52" s="123"/>
+      <c r="N52" s="123"/>
+      <c r="O52" s="123"/>
+      <c r="P52" s="124"/>
     </row>
     <row r="53" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E53" s="2" t="s">
@@ -8524,15 +8539,15 @@
       <c r="G53" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="H53" s="120"/>
-      <c r="I53" s="121"/>
-      <c r="J53" s="121"/>
-      <c r="K53" s="121"/>
-      <c r="L53" s="121"/>
-      <c r="M53" s="121"/>
-      <c r="N53" s="121"/>
-      <c r="O53" s="121"/>
-      <c r="P53" s="122"/>
+      <c r="H53" s="122"/>
+      <c r="I53" s="123"/>
+      <c r="J53" s="123"/>
+      <c r="K53" s="123"/>
+      <c r="L53" s="123"/>
+      <c r="M53" s="123"/>
+      <c r="N53" s="123"/>
+      <c r="O53" s="123"/>
+      <c r="P53" s="124"/>
     </row>
     <row r="54" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E54" s="1" t="s">
@@ -8541,15 +8556,15 @@
       <c r="G54" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="H54" s="120"/>
-      <c r="I54" s="121"/>
-      <c r="J54" s="121"/>
-      <c r="K54" s="121"/>
-      <c r="L54" s="121"/>
-      <c r="M54" s="121"/>
-      <c r="N54" s="121"/>
-      <c r="O54" s="121"/>
-      <c r="P54" s="122"/>
+      <c r="H54" s="122"/>
+      <c r="I54" s="123"/>
+      <c r="J54" s="123"/>
+      <c r="K54" s="123"/>
+      <c r="L54" s="123"/>
+      <c r="M54" s="123"/>
+      <c r="N54" s="123"/>
+      <c r="O54" s="123"/>
+      <c r="P54" s="124"/>
     </row>
     <row r="55" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E55" s="1" t="s">
@@ -8558,15 +8573,15 @@
       <c r="G55" s="44" t="s">
         <v>256</v>
       </c>
-      <c r="H55" s="120"/>
-      <c r="I55" s="121"/>
-      <c r="J55" s="121"/>
-      <c r="K55" s="121"/>
-      <c r="L55" s="121"/>
-      <c r="M55" s="121"/>
-      <c r="N55" s="121"/>
-      <c r="O55" s="121"/>
-      <c r="P55" s="122"/>
+      <c r="H55" s="122"/>
+      <c r="I55" s="123"/>
+      <c r="J55" s="123"/>
+      <c r="K55" s="123"/>
+      <c r="L55" s="123"/>
+      <c r="M55" s="123"/>
+      <c r="N55" s="123"/>
+      <c r="O55" s="123"/>
+      <c r="P55" s="124"/>
     </row>
     <row r="56" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E56" s="1" t="s">
@@ -8575,15 +8590,15 @@
       <c r="G56" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="H56" s="123"/>
-      <c r="I56" s="124"/>
-      <c r="J56" s="124"/>
-      <c r="K56" s="124"/>
-      <c r="L56" s="124"/>
-      <c r="M56" s="124"/>
-      <c r="N56" s="124"/>
-      <c r="O56" s="124"/>
-      <c r="P56" s="125"/>
+      <c r="H56" s="125"/>
+      <c r="I56" s="126"/>
+      <c r="J56" s="126"/>
+      <c r="K56" s="126"/>
+      <c r="L56" s="126"/>
+      <c r="M56" s="126"/>
+      <c r="N56" s="126"/>
+      <c r="O56" s="126"/>
+      <c r="P56" s="127"/>
     </row>
     <row r="57" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E57" s="1" t="s">
@@ -8704,49 +8719,49 @@
     </row>
     <row r="72" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="73" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="F73" s="126">
+      <c r="F73" s="113">
         <v>4</v>
       </c>
-      <c r="G73" s="129" t="s">
+      <c r="G73" s="116" t="s">
         <v>350</v>
       </c>
-      <c r="H73" s="117" t="s">
+      <c r="H73" s="119" t="s">
         <v>352</v>
       </c>
-      <c r="I73" s="118"/>
-      <c r="J73" s="118"/>
-      <c r="K73" s="118"/>
-      <c r="L73" s="118"/>
-      <c r="M73" s="118"/>
-      <c r="N73" s="118"/>
-      <c r="O73" s="118"/>
-      <c r="P73" s="119"/>
+      <c r="I73" s="120"/>
+      <c r="J73" s="120"/>
+      <c r="K73" s="120"/>
+      <c r="L73" s="120"/>
+      <c r="M73" s="120"/>
+      <c r="N73" s="120"/>
+      <c r="O73" s="120"/>
+      <c r="P73" s="121"/>
     </row>
     <row r="74" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="F74" s="127"/>
-      <c r="G74" s="130"/>
-      <c r="H74" s="120"/>
-      <c r="I74" s="121"/>
-      <c r="J74" s="121"/>
-      <c r="K74" s="121"/>
-      <c r="L74" s="121"/>
-      <c r="M74" s="121"/>
-      <c r="N74" s="121"/>
-      <c r="O74" s="121"/>
-      <c r="P74" s="122"/>
+      <c r="F74" s="114"/>
+      <c r="G74" s="117"/>
+      <c r="H74" s="122"/>
+      <c r="I74" s="123"/>
+      <c r="J74" s="123"/>
+      <c r="K74" s="123"/>
+      <c r="L74" s="123"/>
+      <c r="M74" s="123"/>
+      <c r="N74" s="123"/>
+      <c r="O74" s="123"/>
+      <c r="P74" s="124"/>
     </row>
     <row r="75" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F75" s="128"/>
-      <c r="G75" s="131"/>
-      <c r="H75" s="123"/>
-      <c r="I75" s="124"/>
-      <c r="J75" s="124"/>
-      <c r="K75" s="124"/>
-      <c r="L75" s="124"/>
-      <c r="M75" s="124"/>
-      <c r="N75" s="124"/>
-      <c r="O75" s="124"/>
-      <c r="P75" s="125"/>
+      <c r="F75" s="115"/>
+      <c r="G75" s="118"/>
+      <c r="H75" s="125"/>
+      <c r="I75" s="126"/>
+      <c r="J75" s="126"/>
+      <c r="K75" s="126"/>
+      <c r="L75" s="126"/>
+      <c r="M75" s="126"/>
+      <c r="N75" s="126"/>
+      <c r="O75" s="126"/>
+      <c r="P75" s="127"/>
     </row>
     <row r="76" spans="5:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G76" s="50" t="s">
